--- a/Documentation/FP1-log-G57-8414-350-1201.xlsx
+++ b/Documentation/FP1-log-G57-8414-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Marco\Desktop\ENSC350FP\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3D8BCB-FFBC-48CA-A9A1-3B0814BB050D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EDF32A-3C84-49FB-AA27-B256E0605518}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Created File Structure and Published a Git Repo</t>
+  </si>
+  <si>
+    <t>Set up Model Sim Project</t>
   </si>
 </sst>
 </file>
@@ -661,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD00F48-C874-4451-94D3-83F5136CE4E1}">
   <dimension ref="A1:G756"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12">
         <v>8414</v>
       </c>
@@ -749,10 +752,18 @@
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="22"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="9">
+        <v>43917</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
